--- a/Excel Data/Ft.xlsx
+++ b/Excel Data/Ft.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="67">
   <si>
     <t>amount</t>
   </si>
@@ -226,9 +226,6 @@
   </si>
   <si>
     <t>check the functionality of chequebook Debit transaction of Rs. 500 with cheque no XXXXXXXX from customer account where cheque is not at 90 status</t>
-  </si>
-  <si>
-    <t>a00a</t>
   </si>
 </sst>
 </file>
@@ -436,7 +433,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
@@ -453,9 +450,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -770,7 +764,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -836,7 +830,7 @@
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -865,7 +859,7 @@
       <c r="H2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="J2" s="4">
@@ -881,13 +875,13 @@
         <v>46</v>
       </c>
       <c r="N2" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O2" s="4">
         <v>118605</v>
       </c>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="10"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -914,7 +908,7 @@
       <c r="H3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="4">
@@ -930,13 +924,13 @@
         <v>46</v>
       </c>
       <c r="N3" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O3" s="4">
         <v>118606</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10" t="s">
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -965,7 +959,7 @@
       <c r="H4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I4" s="14" t="s">
+      <c r="I4" s="13" t="s">
         <v>51</v>
       </c>
       <c r="J4" s="4">
@@ -981,13 +975,13 @@
         <v>46</v>
       </c>
       <c r="N4" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O4" s="4">
         <v>118611</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1014,7 +1008,7 @@
       <c r="H5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I5" s="14" t="s">
+      <c r="I5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="J5" s="4">
@@ -1030,15 +1024,15 @@
         <v>46</v>
       </c>
       <c r="N5" s="5">
-        <v>20221229</v>
+        <v>20230616</v>
       </c>
       <c r="O5" s="4">
         <v>118617</v>
       </c>
-      <c r="P5" s="9" t="s">
+      <c r="P5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="Q5" s="10" t="s">
+      <c r="Q5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1067,7 +1061,7 @@
       <c r="H6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I6" s="14" t="s">
+      <c r="I6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="J6" s="4">
@@ -1083,13 +1077,13 @@
         <v>46</v>
       </c>
       <c r="N6" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O6" s="4">
         <v>118616</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1116,7 +1110,7 @@
       <c r="H7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I7" s="14" t="s">
+      <c r="I7" s="13" t="s">
         <v>54</v>
       </c>
       <c r="J7" s="4">
@@ -1132,15 +1126,15 @@
         <v>46</v>
       </c>
       <c r="N7" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O7" s="4">
         <v>118614</v>
       </c>
-      <c r="P7" s="9" t="s">
+      <c r="P7" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="Q7" s="10" t="s">
+      <c r="Q7" s="9" t="s">
         <v>19</v>
       </c>
     </row>
@@ -1169,7 +1163,7 @@
       <c r="H8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I8" s="14" t="s">
+      <c r="I8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="J8" s="4">
@@ -1185,15 +1179,15 @@
         <v>46</v>
       </c>
       <c r="N8" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O8" s="4">
         <v>118615</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1220,7 +1214,7 @@
       <c r="H9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I9" s="14" t="s">
+      <c r="I9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="J9" s="4">
@@ -1236,13 +1230,13 @@
         <v>46</v>
       </c>
       <c r="N9" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O9" s="4">
         <v>118625</v>
       </c>
-      <c r="P9" s="9"/>
-      <c r="Q9" s="10"/>
+      <c r="P9" s="8"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -1269,7 +1263,7 @@
       <c r="H10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="J10" s="4">
@@ -1285,13 +1279,13 @@
         <v>46</v>
       </c>
       <c r="N10" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O10" s="4">
         <v>118626</v>
       </c>
-      <c r="P10" s="9"/>
-      <c r="Q10" s="10"/>
+      <c r="P10" s="8"/>
+      <c r="Q10" s="9"/>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
@@ -1318,7 +1312,7 @@
       <c r="H11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I11" s="14" t="s">
+      <c r="I11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="J11" s="4">
@@ -1334,13 +1328,13 @@
         <v>46</v>
       </c>
       <c r="N11" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O11" s="4">
         <v>118627</v>
       </c>
-      <c r="P11" s="9"/>
-      <c r="Q11" s="10"/>
+      <c r="P11" s="8"/>
+      <c r="Q11" s="9"/>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
@@ -1367,7 +1361,7 @@
       <c r="H12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I12" s="14" t="s">
+      <c r="I12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="J12" s="4">
@@ -1383,13 +1377,13 @@
         <v>46</v>
       </c>
       <c r="N12" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="O12" s="4">
         <v>118628</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10"/>
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9"/>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
@@ -1401,7 +1395,7 @@
       <c r="C13" s="4">
         <v>1000047526</v>
       </c>
-      <c r="D13" s="9">
+      <c r="D13" s="8">
         <v>50603725</v>
       </c>
       <c r="E13" s="4">
@@ -1416,7 +1410,7 @@
       <c r="H13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I13" s="14" t="s">
+      <c r="I13" s="13" t="s">
         <v>50</v>
       </c>
       <c r="J13" s="4">
@@ -1432,28 +1426,28 @@
         <v>46</v>
       </c>
       <c r="N13" s="5">
-        <v>20221230</v>
-      </c>
-      <c r="O13" s="16">
+        <v>20230617</v>
+      </c>
+      <c r="O13" s="15">
         <v>118625</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="P13" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q13" s="10"/>
+      <c r="Q13" s="9"/>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A14" s="17">
+      <c r="A14" s="16">
         <v>1000008617</v>
       </c>
-      <c r="B14" s="16">
+      <c r="B14" s="15">
         <v>500</v>
       </c>
       <c r="C14" s="4">
         <v>1000047526</v>
       </c>
-      <c r="D14" s="16" t="s">
-        <v>67</v>
+      <c r="D14" s="15">
+        <v>12345678</v>
       </c>
       <c r="E14" s="4">
         <v>1</v>
@@ -1467,7 +1461,7 @@
       <c r="H14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="I14" s="14" t="s">
+      <c r="I14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="J14" s="4">
@@ -1483,27 +1477,27 @@
         <v>46</v>
       </c>
       <c r="N14" s="5">
-        <v>20221230</v>
-      </c>
-      <c r="O14" s="16">
+        <v>20230617</v>
+      </c>
+      <c r="O14" s="15">
         <v>118627</v>
       </c>
-      <c r="P14" s="16" t="s">
+      <c r="P14" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Q14" s="10"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="18">
+      <c r="A15" s="17">
         <v>1000008617</v>
       </c>
-      <c r="B15" s="19">
+      <c r="B15" s="18">
         <v>500</v>
       </c>
       <c r="C15" s="7">
         <v>1000047526</v>
       </c>
-      <c r="D15" s="13">
+      <c r="D15" s="12">
         <v>1041976</v>
       </c>
       <c r="E15" s="7">
@@ -1518,7 +1512,7 @@
       <c r="H15" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="I15" s="15" t="s">
+      <c r="I15" s="14" t="s">
         <v>50</v>
       </c>
       <c r="J15" s="7">
@@ -1533,16 +1527,16 @@
       <c r="M15" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="N15" s="8">
-        <v>20221230</v>
-      </c>
-      <c r="O15" s="19">
+      <c r="N15" s="5">
+        <v>20230617</v>
+      </c>
+      <c r="O15" s="18">
         <v>118625</v>
       </c>
-      <c r="P15" s="19" t="s">
+      <c r="P15" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="Q15" s="11"/>
+      <c r="Q15" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1554,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O1" workbookViewId="0">
-      <selection activeCell="P6" sqref="P6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1617,7 +1611,7 @@
       <c r="P1" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="12" t="s">
+      <c r="Q1" s="11" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1635,7 +1629,7 @@
         <v>70161875</v>
       </c>
       <c r="E2" s="5">
-        <v>20221230</v>
+        <v>20230617</v>
       </c>
       <c r="F2" s="4">
         <v>2</v>
@@ -1649,7 +1643,7 @@
       <c r="I2" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>48</v>
       </c>
       <c r="K2" s="4">
@@ -1667,10 +1661,10 @@
       <c r="O2" s="4">
         <v>118425</v>
       </c>
-      <c r="P2" s="9" t="s">
+      <c r="P2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="Q2" s="10"/>
+      <c r="Q2" s="9"/>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
@@ -1685,8 +1679,8 @@
       <c r="D3" s="4">
         <v>123456789</v>
       </c>
-      <c r="E3" s="4">
-        <v>20221230</v>
+      <c r="E3" s="5">
+        <v>20230617</v>
       </c>
       <c r="F3" s="4">
         <v>1</v>
@@ -1700,7 +1694,7 @@
       <c r="I3" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>50</v>
       </c>
       <c r="K3" s="4">
@@ -1718,8 +1712,8 @@
       <c r="O3" s="4">
         <v>118604</v>
       </c>
-      <c r="P3" s="9"/>
-      <c r="Q3" s="10"/>
+      <c r="P3" s="8"/>
+      <c r="Q3" s="9"/>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
@@ -1734,8 +1728,8 @@
       <c r="D4" s="4">
         <v>123456790</v>
       </c>
-      <c r="E4" s="4">
-        <v>20221230</v>
+      <c r="E4" s="5">
+        <v>20230617</v>
       </c>
       <c r="F4" s="4">
         <v>2</v>
@@ -1749,7 +1743,7 @@
       <c r="I4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J4" s="14" t="s">
+      <c r="J4" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K4" s="4">
@@ -1767,8 +1761,8 @@
       <c r="O4" s="4">
         <v>118607</v>
       </c>
-      <c r="P4" s="9"/>
-      <c r="Q4" s="10"/>
+      <c r="P4" s="8"/>
+      <c r="Q4" s="9"/>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
@@ -1783,8 +1777,8 @@
       <c r="D5" s="4">
         <v>123456791</v>
       </c>
-      <c r="E5" s="4">
-        <v>20221230</v>
+      <c r="E5" s="5">
+        <v>20230617</v>
       </c>
       <c r="F5" s="4">
         <v>2</v>
@@ -1798,7 +1792,7 @@
       <c r="I5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J5" s="14" t="s">
+      <c r="J5" s="13" t="s">
         <v>53</v>
       </c>
       <c r="K5" s="4">
@@ -1816,8 +1810,8 @@
       <c r="O5" s="4">
         <v>118608</v>
       </c>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="10"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="9"/>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
@@ -1832,8 +1826,8 @@
       <c r="D6" s="4">
         <v>123456792</v>
       </c>
-      <c r="E6" s="4">
-        <v>20221230</v>
+      <c r="E6" s="5">
+        <v>20230617</v>
       </c>
       <c r="F6" s="4">
         <v>1</v>
@@ -1847,7 +1841,7 @@
       <c r="I6" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J6" s="14" t="s">
+      <c r="J6" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K6" s="4">
@@ -1865,8 +1859,8 @@
       <c r="O6" s="4">
         <v>118609</v>
       </c>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="10"/>
+      <c r="P6" s="8"/>
+      <c r="Q6" s="9"/>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
@@ -1881,8 +1875,8 @@
       <c r="D7" s="4">
         <v>37463600</v>
       </c>
-      <c r="E7" s="4">
-        <v>20221230</v>
+      <c r="E7" s="5">
+        <v>20230617</v>
       </c>
       <c r="F7" s="4">
         <v>1</v>
@@ -1896,7 +1890,7 @@
       <c r="I7" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J7" s="14" t="s">
+      <c r="J7" s="13" t="s">
         <v>54</v>
       </c>
       <c r="K7" s="4">
@@ -1914,8 +1908,8 @@
       <c r="O7" s="4">
         <v>118610</v>
       </c>
-      <c r="P7" s="9"/>
-      <c r="Q7" s="10"/>
+      <c r="P7" s="8"/>
+      <c r="Q7" s="9"/>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
@@ -1930,8 +1924,8 @@
       <c r="D8" s="4">
         <v>123456793</v>
       </c>
-      <c r="E8" s="4">
-        <v>20221230</v>
+      <c r="E8" s="5">
+        <v>20230617</v>
       </c>
       <c r="F8" s="4">
         <v>1</v>
@@ -1945,7 +1939,7 @@
       <c r="I8" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J8" s="14" t="s">
+      <c r="J8" s="13" t="s">
         <v>55</v>
       </c>
       <c r="K8" s="4">
@@ -1963,10 +1957,10 @@
       <c r="O8" s="4">
         <v>118612</v>
       </c>
-      <c r="P8" s="9" t="s">
+      <c r="P8" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q8" s="10"/>
+      <c r="Q8" s="9"/>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
@@ -1981,8 +1975,8 @@
       <c r="D9" s="4">
         <v>123456501</v>
       </c>
-      <c r="E9" s="4">
-        <v>20221230</v>
+      <c r="E9" s="5">
+        <v>20230617</v>
       </c>
       <c r="F9" s="4">
         <v>2</v>
@@ -1996,7 +1990,7 @@
       <c r="I9" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J9" s="14" t="s">
+      <c r="J9" s="13" t="s">
         <v>56</v>
       </c>
       <c r="K9" s="4">
@@ -2014,10 +2008,10 @@
       <c r="O9" s="4">
         <v>118613</v>
       </c>
-      <c r="P9" s="9" t="s">
+      <c r="P9" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="Q9" s="10"/>
+      <c r="Q9" s="9"/>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
@@ -2032,8 +2026,8 @@
       <c r="D10" s="4">
         <v>123456803</v>
       </c>
-      <c r="E10" s="4">
-        <v>20221230</v>
+      <c r="E10" s="5">
+        <v>20230617</v>
       </c>
       <c r="F10" s="4">
         <v>1</v>
@@ -2047,7 +2041,7 @@
       <c r="I10" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J10" s="14" t="s">
+      <c r="J10" s="13" t="s">
         <v>57</v>
       </c>
       <c r="K10" s="4">
@@ -2065,10 +2059,10 @@
       <c r="O10" s="4">
         <v>118618</v>
       </c>
-      <c r="P10" s="9" t="s">
+      <c r="P10" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="Q10" s="10" t="s">
+      <c r="Q10" s="9" t="s">
         <v>13</v>
       </c>
     </row>
@@ -2085,8 +2079,8 @@
       <c r="D11" s="4">
         <v>123456803</v>
       </c>
-      <c r="E11" s="4">
-        <v>20221230</v>
+      <c r="E11" s="5">
+        <v>20230617</v>
       </c>
       <c r="F11" s="4">
         <v>2</v>
@@ -2100,7 +2094,7 @@
       <c r="I11" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J11" s="14" t="s">
+      <c r="J11" s="13" t="s">
         <v>49</v>
       </c>
       <c r="K11" s="4">
@@ -2118,10 +2112,10 @@
       <c r="O11" s="4">
         <v>118619</v>
       </c>
-      <c r="P11" s="9" t="s">
+      <c r="P11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Q11" s="10" t="s">
+      <c r="Q11" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2138,8 +2132,8 @@
       <c r="D12" s="4">
         <v>123456803</v>
       </c>
-      <c r="E12" s="4">
-        <v>20221230</v>
+      <c r="E12" s="5">
+        <v>20230617</v>
       </c>
       <c r="F12" s="4">
         <v>2</v>
@@ -2153,7 +2147,7 @@
       <c r="I12" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J12" s="14" t="s">
+      <c r="J12" s="13" t="s">
         <v>58</v>
       </c>
       <c r="K12" s="4">
@@ -2171,8 +2165,8 @@
       <c r="O12" s="4">
         <v>118619</v>
       </c>
-      <c r="P12" s="9"/>
-      <c r="Q12" s="10" t="s">
+      <c r="P12" s="8"/>
+      <c r="Q12" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2189,8 +2183,8 @@
       <c r="D13" s="4">
         <v>123456796</v>
       </c>
-      <c r="E13" s="4">
-        <v>20221230</v>
+      <c r="E13" s="5">
+        <v>20230617</v>
       </c>
       <c r="F13" s="4">
         <v>1</v>
@@ -2204,7 +2198,7 @@
       <c r="I13" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J13" s="14" t="s">
+      <c r="J13" s="13" t="s">
         <v>48</v>
       </c>
       <c r="K13" s="4">
@@ -2222,8 +2216,8 @@
       <c r="O13" s="4">
         <v>118621</v>
       </c>
-      <c r="P13" s="9"/>
-      <c r="Q13" s="10" t="s">
+      <c r="P13" s="8"/>
+      <c r="Q13" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2240,8 +2234,8 @@
       <c r="D14" s="4">
         <v>123456797</v>
       </c>
-      <c r="E14" s="4">
-        <v>20221230</v>
+      <c r="E14" s="5">
+        <v>20230617</v>
       </c>
       <c r="F14" s="4">
         <v>1</v>
@@ -2255,7 +2249,7 @@
       <c r="I14" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J14" s="14" t="s">
+      <c r="J14" s="13" t="s">
         <v>50</v>
       </c>
       <c r="K14" s="4">
@@ -2273,8 +2267,8 @@
       <c r="O14" s="4">
         <v>118629</v>
       </c>
-      <c r="P14" s="9"/>
-      <c r="Q14" s="10"/>
+      <c r="P14" s="8"/>
+      <c r="Q14" s="9"/>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
@@ -2289,8 +2283,8 @@
       <c r="D15" s="4">
         <v>123456798</v>
       </c>
-      <c r="E15" s="4">
-        <v>20221230</v>
+      <c r="E15" s="5">
+        <v>20230617</v>
       </c>
       <c r="F15" s="4">
         <v>2</v>
@@ -2304,7 +2298,7 @@
       <c r="I15" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J15" s="14" t="s">
+      <c r="J15" s="13" t="s">
         <v>51</v>
       </c>
       <c r="K15" s="4">
@@ -2322,8 +2316,8 @@
       <c r="O15" s="4">
         <v>118630</v>
       </c>
-      <c r="P15" s="9"/>
-      <c r="Q15" s="10"/>
+      <c r="P15" s="8"/>
+      <c r="Q15" s="9"/>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
@@ -2338,8 +2332,8 @@
       <c r="D16" s="4">
         <v>123456799</v>
       </c>
-      <c r="E16" s="4">
-        <v>20221230</v>
+      <c r="E16" s="5">
+        <v>20230617</v>
       </c>
       <c r="F16" s="4">
         <v>2</v>
@@ -2353,7 +2347,7 @@
       <c r="I16" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J16" s="14" t="s">
+      <c r="J16" s="13" t="s">
         <v>53</v>
       </c>
       <c r="K16" s="4">
@@ -2371,8 +2365,8 @@
       <c r="O16" s="4">
         <v>118631</v>
       </c>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="10"/>
+      <c r="P16" s="8"/>
+      <c r="Q16" s="9"/>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
@@ -2387,8 +2381,8 @@
       <c r="D17" s="4">
         <v>123456800</v>
       </c>
-      <c r="E17" s="4">
-        <v>20221230</v>
+      <c r="E17" s="5">
+        <v>20230617</v>
       </c>
       <c r="F17" s="4">
         <v>1</v>
@@ -2402,7 +2396,7 @@
       <c r="I17" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="J17" s="14" t="s">
+      <c r="J17" s="13" t="s">
         <v>52</v>
       </c>
       <c r="K17" s="4">
@@ -2420,10 +2414,10 @@
       <c r="O17" s="4">
         <v>118707</v>
       </c>
-      <c r="P17" s="9" t="s">
+      <c r="P17" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Q17" s="10" t="s">
+      <c r="Q17" s="9" t="s">
         <v>10</v>
       </c>
     </row>
@@ -2440,8 +2434,8 @@
       <c r="D18" s="7">
         <v>123456801</v>
       </c>
-      <c r="E18" s="7">
-        <v>20221230</v>
+      <c r="E18" s="5">
+        <v>20230617</v>
       </c>
       <c r="F18" s="7">
         <v>1</v>
@@ -2455,7 +2449,7 @@
       <c r="I18" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J18" s="15" t="s">
+      <c r="J18" s="14" t="s">
         <v>54</v>
       </c>
       <c r="K18" s="7">
@@ -2473,24 +2467,24 @@
       <c r="O18" s="7">
         <v>118632</v>
       </c>
-      <c r="P18" s="13"/>
-      <c r="Q18" s="11"/>
+      <c r="P18" s="12"/>
+      <c r="Q18" s="10"/>
     </row>
     <row r="19" spans="1:17" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="20">
+      <c r="A19" s="19">
         <v>1003438322</v>
       </c>
       <c r="B19" s="4">
         <v>1000000</v>
       </c>
-      <c r="C19" s="21">
+      <c r="C19" s="20">
         <v>1004894994</v>
       </c>
-      <c r="D19" s="21">
+      <c r="D19" s="20">
         <v>90221889</v>
       </c>
-      <c r="E19" s="7">
-        <v>20221230</v>
+      <c r="E19" s="5">
+        <v>20230617</v>
       </c>
       <c r="F19" s="7">
         <v>1</v>
@@ -2504,7 +2498,7 @@
       <c r="I19" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="15" t="s">
+      <c r="J19" s="14" t="s">
         <v>54</v>
       </c>
       <c r="K19" s="7">
@@ -2519,7 +2513,7 @@
       <c r="N19" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O19" s="21">
+      <c r="O19" s="20">
         <v>118619</v>
       </c>
     </row>
@@ -2530,14 +2524,14 @@
       <c r="B20" s="4">
         <v>1000000</v>
       </c>
-      <c r="C20" s="21">
+      <c r="C20" s="20">
         <v>1004894994</v>
       </c>
-      <c r="D20" s="21">
+      <c r="D20" s="20">
         <v>40317820</v>
       </c>
-      <c r="E20" s="7">
-        <v>20221230</v>
+      <c r="E20" s="5">
+        <v>20230617</v>
       </c>
       <c r="F20" s="7">
         <v>1</v>
@@ -2551,7 +2545,7 @@
       <c r="I20" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="14" t="s">
         <v>54</v>
       </c>
       <c r="K20" s="7">
@@ -2566,7 +2560,7 @@
       <c r="N20" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="O20" s="21">
+      <c r="O20" s="20">
         <v>118620</v>
       </c>
     </row>

--- a/Excel Data/Ft.xlsx
+++ b/Excel Data/Ft.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Selenium Workspace Functional Testing\Retail Ops\Excel Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\xcelliti5\IdeaProjects\Retail Project\Excel Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="General" sheetId="1" r:id="rId1"/>
@@ -763,8 +763,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:Q15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1548,8 +1548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H23" activeCellId="1" sqref="A3:Q20 H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
